--- a/pokemon.xlsx
+++ b/pokemon.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80053507\Downloads\PPC_Pandas_Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80053507\Downloads\PPC_Pandas_Advanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97D4A46-A5AF-4023-8A55-EBDD6664755E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3819D8-D34F-4419-B85A-DF6E14BA5CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4464" uniqueCount="2732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4694" uniqueCount="2733">
   <si>
     <t>abilities</t>
   </si>
@@ -8216,12 +8227,15 @@
   </si>
   <si>
     <t>Magearna</t>
+  </si>
+  <si>
+    <t>evolution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9055,12 +9069,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO802"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="Z62" workbookViewId="0">
+      <selection activeCell="AE81" sqref="AE81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -107744,6 +107802,1024 @@
       </c>
       <c r="AO802">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF154C58-CF7F-41C9-AFB3-B16359C54A2F}">
+  <dimension ref="A1:B155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>255</v>
+      </c>
+      <c r="B65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>268</v>
+      </c>
+      <c r="B70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>277</v>
+      </c>
+      <c r="B73" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>283</v>
+      </c>
+      <c r="B75" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>286</v>
+      </c>
+      <c r="B76" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>293</v>
+      </c>
+      <c r="B78" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>299</v>
+      </c>
+      <c r="B80" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>299</v>
+      </c>
+      <c r="B81" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>299</v>
+      </c>
+      <c r="B82" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>299</v>
+      </c>
+      <c r="B83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>313</v>
+      </c>
+      <c r="B87" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>320</v>
+      </c>
+      <c r="B89" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>326</v>
+      </c>
+      <c r="B91" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>332</v>
+      </c>
+      <c r="B93" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>338</v>
+      </c>
+      <c r="B95" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>342</v>
+      </c>
+      <c r="B96" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>353</v>
+      </c>
+      <c r="B99" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>359</v>
+      </c>
+      <c r="B101" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>366</v>
+      </c>
+      <c r="B103" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>372</v>
+      </c>
+      <c r="B105" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>380</v>
+      </c>
+      <c r="B107" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>400</v>
+      </c>
+      <c r="B112" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>405</v>
+      </c>
+      <c r="B114" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>422</v>
+      </c>
+      <c r="B119" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>429</v>
+      </c>
+      <c r="B121" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>435</v>
+      </c>
+      <c r="B123" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>470</v>
+      </c>
+      <c r="B132" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>486</v>
+      </c>
+      <c r="B136" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>490</v>
+      </c>
+      <c r="B137" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>494</v>
+      </c>
+      <c r="B138" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>505</v>
+      </c>
+      <c r="B141" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>511</v>
+      </c>
+      <c r="B143" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>534</v>
+      </c>
+      <c r="B150" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>537</v>
+      </c>
+      <c r="B151" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>543</v>
+      </c>
+      <c r="B153" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
